--- a/JupyterNotebooks/AveragedIntensities-SRP/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/GossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.112766570605187</v>
+        <v>1.110965417867435</v>
       </c>
       <c r="D3">
-        <v>0.8829322766570605</v>
+        <v>0.8732204610951009</v>
       </c>
       <c r="E3">
-        <v>0.9821974063400576</v>
+        <v>0.9870317002881844</v>
       </c>
       <c r="F3">
-        <v>1.112766570605187</v>
+        <v>1.110965417867435</v>
       </c>
       <c r="G3">
-        <v>0.9434149855907781</v>
+        <v>0.9369596541786743</v>
       </c>
       <c r="H3">
-        <v>0.9708213256484149</v>
+        <v>0.9840417867435158</v>
       </c>
       <c r="I3">
-        <v>1.014474063400576</v>
+        <v>1.017406340057637</v>
       </c>
       <c r="J3">
-        <v>0.8829322766570605</v>
+        <v>0.8732204610951009</v>
       </c>
       <c r="K3">
-        <v>1.112766570605187</v>
+        <v>1.110965417867435</v>
       </c>
       <c r="L3">
-        <v>0.932564841498559</v>
+        <v>0.9870317002881844</v>
       </c>
       <c r="M3">
-        <v>0.932564841498559</v>
+        <v>0.9301260806916427</v>
       </c>
       <c r="N3">
-        <v>0.9361815561959653</v>
+        <v>0.9301260806916427</v>
       </c>
       <c r="O3">
-        <v>0.9926320845341018</v>
+        <v>0.9324039385206532</v>
       </c>
       <c r="P3">
-        <v>0.9926320845341019</v>
+        <v>0.9904058597502402</v>
       </c>
       <c r="Q3">
-        <v>1.022665706051873</v>
+        <v>0.9904058597502402</v>
       </c>
       <c r="R3">
-        <v>1.022665706051873</v>
+        <v>1.020545749279539</v>
       </c>
       <c r="S3">
-        <v>0.9844344380403459</v>
+        <v>1.020545749279539</v>
+      </c>
+      <c r="T3">
+        <v>0.9849375600384246</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9881173382829295</v>
+        <v>0.9870975407402144</v>
       </c>
       <c r="D4">
-        <v>0.997343698746157</v>
+        <v>0.9950939054233108</v>
       </c>
       <c r="E4">
-        <v>0.9974492719252781</v>
+        <v>0.9991745937072521</v>
       </c>
       <c r="F4">
-        <v>0.9881173382829295</v>
+        <v>0.9870975407402144</v>
       </c>
       <c r="G4">
-        <v>0.9907662648183386</v>
+        <v>0.9884895757715156</v>
       </c>
       <c r="H4">
-        <v>1.00927945255555</v>
+        <v>1.014622979784832</v>
       </c>
       <c r="I4">
-        <v>0.995959326322821</v>
+        <v>0.9968633548783302</v>
       </c>
       <c r="J4">
-        <v>0.997343698746157</v>
+        <v>0.9950939054233108</v>
       </c>
       <c r="K4">
-        <v>0.9881173382829295</v>
+        <v>0.9870975407402144</v>
       </c>
       <c r="L4">
-        <v>0.9973964853357176</v>
+        <v>0.9991745937072521</v>
       </c>
       <c r="M4">
-        <v>0.9973964853357176</v>
+        <v>0.9971342495652815</v>
       </c>
       <c r="N4">
-        <v>0.9951864118299246</v>
+        <v>0.9971342495652815</v>
       </c>
       <c r="O4">
-        <v>0.9943034363181216</v>
+        <v>0.9942526916340263</v>
       </c>
       <c r="P4">
-        <v>0.9943034363181216</v>
+        <v>0.9937886799569258</v>
       </c>
       <c r="Q4">
-        <v>0.9927569118093236</v>
+        <v>0.9937886799569258</v>
       </c>
       <c r="R4">
-        <v>0.9927569118093236</v>
+        <v>0.9921158951527479</v>
       </c>
       <c r="S4">
-        <v>0.9964858921085123</v>
+        <v>0.9921158951527479</v>
+      </c>
+      <c r="T4">
+        <v>0.9968903250509092</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9840444595309742</v>
+        <v>0.9833508948227769</v>
       </c>
       <c r="D5">
-        <v>0.994562177077013</v>
+        <v>0.9950887042466666</v>
       </c>
       <c r="E5">
-        <v>1.002006258402388</v>
+        <v>1.002219417062731</v>
       </c>
       <c r="F5">
-        <v>0.9840444595309742</v>
+        <v>0.9833508948227769</v>
       </c>
       <c r="G5">
-        <v>0.9849595926878714</v>
+        <v>0.984872430553372</v>
       </c>
       <c r="H5">
-        <v>1.026084356962194</v>
+        <v>1.026991197513424</v>
       </c>
       <c r="I5">
-        <v>0.9981424998150747</v>
+        <v>0.9979006955028106</v>
       </c>
       <c r="J5">
-        <v>0.994562177077013</v>
+        <v>0.9950887042466666</v>
       </c>
       <c r="K5">
-        <v>0.9840444595309742</v>
+        <v>0.9833508948227769</v>
       </c>
       <c r="L5">
-        <v>0.9982842177397006</v>
+        <v>1.002219417062731</v>
       </c>
       <c r="M5">
-        <v>0.9982842177397006</v>
+        <v>0.9986540606546985</v>
       </c>
       <c r="N5">
-        <v>0.9938426760557575</v>
+        <v>0.9986540606546985</v>
       </c>
       <c r="O5">
-        <v>0.9935376316701251</v>
+        <v>0.9940601839542564</v>
       </c>
       <c r="P5">
-        <v>0.9935376316701251</v>
+        <v>0.9935530053773913</v>
       </c>
       <c r="Q5">
-        <v>0.9911643386353374</v>
+        <v>0.9935530053773913</v>
       </c>
       <c r="R5">
-        <v>0.9911643386353374</v>
+        <v>0.9910024777387377</v>
       </c>
       <c r="S5">
-        <v>0.9982998907459194</v>
+        <v>0.9910024777387377</v>
+      </c>
+      <c r="T5">
+        <v>0.9984038899502967</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9972451879411162</v>
+        <v>0.9962784887745791</v>
       </c>
       <c r="D6">
-        <v>0.9928390660821591</v>
+        <v>0.994619251703808</v>
       </c>
       <c r="E6">
-        <v>0.9938750894031737</v>
+        <v>0.9936797700849543</v>
       </c>
       <c r="F6">
-        <v>0.9972451879411162</v>
+        <v>0.9962784887745791</v>
       </c>
       <c r="G6">
-        <v>0.9926505454369841</v>
+        <v>0.9933988029901977</v>
       </c>
       <c r="H6">
-        <v>0.9944619715233093</v>
+        <v>0.9941638581492266</v>
       </c>
       <c r="I6">
-        <v>0.9958605419618926</v>
+        <v>0.9954614488714957</v>
       </c>
       <c r="J6">
-        <v>0.9928390660821591</v>
+        <v>0.994619251703808</v>
       </c>
       <c r="K6">
-        <v>0.9972451879411162</v>
+        <v>0.9962784887745791</v>
       </c>
       <c r="L6">
-        <v>0.9933570777426664</v>
+        <v>0.9936797700849543</v>
       </c>
       <c r="M6">
-        <v>0.9933570777426664</v>
+        <v>0.9941495108943812</v>
       </c>
       <c r="N6">
-        <v>0.9931215669741057</v>
+        <v>0.9941495108943812</v>
       </c>
       <c r="O6">
-        <v>0.9946531144754829</v>
+        <v>0.9938992749263201</v>
       </c>
       <c r="P6">
-        <v>0.994653114475483</v>
+        <v>0.9948591701877806</v>
       </c>
       <c r="Q6">
-        <v>0.9953011328418913</v>
+        <v>0.9948591701877806</v>
       </c>
       <c r="R6">
-        <v>0.9953011328418913</v>
+        <v>0.9952139998344802</v>
       </c>
       <c r="S6">
-        <v>0.9944887337247725</v>
+        <v>0.9952139998344802</v>
+      </c>
+      <c r="T6">
+        <v>0.9946002700957104</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9954199582472588</v>
+        <v>0.8944693780818429</v>
       </c>
       <c r="D7">
-        <v>0.9933137835985736</v>
+        <v>0.1435974566754628</v>
       </c>
       <c r="E7">
-        <v>0.9942538958394513</v>
+        <v>1.398067464417403</v>
       </c>
       <c r="F7">
-        <v>0.9954199582472588</v>
+        <v>0.8944693780818429</v>
       </c>
       <c r="G7">
-        <v>0.9934133634755241</v>
+        <v>0.3856936744933193</v>
       </c>
       <c r="H7">
-        <v>0.9936876058048701</v>
+        <v>2.243664783995547</v>
       </c>
       <c r="I7">
-        <v>0.9956971022920692</v>
+        <v>1.253513552519149</v>
       </c>
       <c r="J7">
-        <v>0.9933137835985736</v>
+        <v>0.1435974566754628</v>
       </c>
       <c r="K7">
-        <v>0.9954199582472588</v>
+        <v>0.8944693780818429</v>
       </c>
       <c r="L7">
-        <v>0.9937838397190124</v>
+        <v>1.398067464417403</v>
       </c>
       <c r="M7">
-        <v>0.9937838397190124</v>
+        <v>0.7708324605464331</v>
       </c>
       <c r="N7">
-        <v>0.9936603476378497</v>
+        <v>0.7708324605464331</v>
       </c>
       <c r="O7">
-        <v>0.9943292125617612</v>
+        <v>0.6424528651953951</v>
       </c>
       <c r="P7">
-        <v>0.9943292125617612</v>
+        <v>0.8120447663915696</v>
       </c>
       <c r="Q7">
-        <v>0.9946018989831357</v>
+        <v>0.8120447663915696</v>
       </c>
       <c r="R7">
-        <v>0.9946018989831357</v>
+        <v>0.832650919314138</v>
       </c>
       <c r="S7">
-        <v>0.9942976182096245</v>
+        <v>0.832650919314138</v>
+      </c>
+      <c r="T7">
+        <v>1.053167718363788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1.22692954780446</v>
+      </c>
+      <c r="D8">
+        <v>0.5449080945638909</v>
+      </c>
+      <c r="E8">
+        <v>1.041304524754317</v>
+      </c>
+      <c r="F8">
+        <v>1.22692954780446</v>
+      </c>
+      <c r="G8">
+        <v>0.8145427962352142</v>
+      </c>
+      <c r="H8">
+        <v>0.9800356093511665</v>
+      </c>
+      <c r="I8">
+        <v>1.094669397544617</v>
+      </c>
+      <c r="J8">
+        <v>0.5449080945638909</v>
+      </c>
+      <c r="K8">
+        <v>1.22692954780446</v>
+      </c>
+      <c r="L8">
+        <v>1.041304524754317</v>
+      </c>
+      <c r="M8">
+        <v>0.793106309659104</v>
+      </c>
+      <c r="N8">
+        <v>0.793106309659104</v>
+      </c>
+      <c r="O8">
+        <v>0.800251805184474</v>
+      </c>
+      <c r="P8">
+        <v>0.9377140557075562</v>
+      </c>
+      <c r="Q8">
+        <v>0.9377140557075562</v>
+      </c>
+      <c r="R8">
+        <v>1.010017928731782</v>
+      </c>
+      <c r="S8">
+        <v>1.010017928731782</v>
+      </c>
+      <c r="T8">
+        <v>0.9503983283756111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
+        <v>3.94</v>
+      </c>
+      <c r="E9">
+        <v>0.46</v>
+      </c>
+      <c r="F9">
+        <v>0.21</v>
+      </c>
+      <c r="G9">
+        <v>2.23</v>
+      </c>
+      <c r="H9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>3.94</v>
+      </c>
+      <c r="K9">
+        <v>0.21</v>
+      </c>
+      <c r="L9">
+        <v>0.46</v>
+      </c>
+      <c r="M9">
+        <v>2.2</v>
+      </c>
+      <c r="N9">
+        <v>2.2</v>
+      </c>
+      <c r="O9">
+        <v>2.21</v>
+      </c>
+      <c r="P9">
+        <v>1.536666666666667</v>
+      </c>
+      <c r="Q9">
+        <v>1.536666666666667</v>
+      </c>
+      <c r="R9">
+        <v>1.205</v>
+      </c>
+      <c r="S9">
+        <v>1.205</v>
+      </c>
+      <c r="T9">
+        <v>1.218333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.97</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>0.86</v>
+      </c>
+      <c r="F10">
+        <v>1.97</v>
+      </c>
+      <c r="G10">
+        <v>0.64</v>
+      </c>
+      <c r="H10">
+        <v>0.67</v>
+      </c>
+      <c r="I10">
+        <v>1.11</v>
+      </c>
+      <c r="J10">
+        <v>0.21</v>
+      </c>
+      <c r="K10">
+        <v>1.97</v>
+      </c>
+      <c r="L10">
+        <v>0.86</v>
+      </c>
+      <c r="M10">
+        <v>0.535</v>
+      </c>
+      <c r="N10">
+        <v>0.535</v>
+      </c>
+      <c r="O10">
+        <v>0.57</v>
+      </c>
+      <c r="P10">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="Q10">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="R10">
+        <v>1.2525</v>
+      </c>
+      <c r="S10">
+        <v>1.2525</v>
+      </c>
+      <c r="T10">
+        <v>0.9100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9915490378394113</v>
+      </c>
+      <c r="D11">
+        <v>0.9974757325517742</v>
+      </c>
+      <c r="E11">
+        <v>0.994935224634625</v>
+      </c>
+      <c r="F11">
+        <v>0.9915490378394113</v>
+      </c>
+      <c r="G11">
+        <v>0.9937214692675462</v>
+      </c>
+      <c r="H11">
+        <v>0.9990330497856222</v>
+      </c>
+      <c r="I11">
+        <v>0.9952945993521713</v>
+      </c>
+      <c r="J11">
+        <v>0.9974757325517742</v>
+      </c>
+      <c r="K11">
+        <v>0.9915490378394113</v>
+      </c>
+      <c r="L11">
+        <v>0.994935224634625</v>
+      </c>
+      <c r="M11">
+        <v>0.9962054785931996</v>
+      </c>
+      <c r="N11">
+        <v>0.9962054785931996</v>
+      </c>
+      <c r="O11">
+        <v>0.9953774754846485</v>
+      </c>
+      <c r="P11">
+        <v>0.9946533316752703</v>
+      </c>
+      <c r="Q11">
+        <v>0.9946533316752703</v>
+      </c>
+      <c r="R11">
+        <v>0.9938772582163055</v>
+      </c>
+      <c r="S11">
+        <v>0.9938772582163055</v>
+      </c>
+      <c r="T11">
+        <v>0.9953348522385251</v>
       </c>
     </row>
   </sheetData>
